--- a/MULTIPLICACION MATRICES/RESULTADOS/Comparacion kernels/MatrixMul_Local_Memory_resultados.xlsx/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/Comparacion kernels/MatrixMul_Local_Memory_resultados.xlsx/resultados.xlsx
@@ -419,10 +419,10 @@
         <v>5.024000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>4.768E-06</v>
+        <v>4.352E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -430,10 +430,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>4.832E-06</v>
+        <v>4.192E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="D3" s="1">
         <v>4.096E-06</v>
@@ -444,10 +444,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>5.12E-06</v>
+        <v>4.096E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>4.832E-06</v>
+        <v>4.96E-06</v>
       </c>
       <c r="D4" s="1">
         <v>5.12E-06</v>
@@ -458,13 +458,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>6.08E-06</v>
       </c>
       <c r="C5" s="1">
         <v>4.096E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>5.12E-06</v>
+        <v>5.952000000000001E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -472,10 +472,10 @@
         <v>128</v>
       </c>
       <c r="B6" s="1">
-        <v>1.024E-05</v>
+        <v>1.0176E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="D6" s="1">
         <v>9.216000000000001E-06</v>
@@ -486,10 +486,10 @@
         <v>256</v>
       </c>
       <c r="B7" s="1">
-        <v>4.102400000000001E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.224E-05</v>
       </c>
       <c r="D7" s="1">
         <v>2.6624E-05</v>
@@ -500,10 +500,10 @@
         <v>512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000287744</v>
+        <v>0.000287488</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000127072</v>
+        <v>0.000126976</v>
       </c>
       <c r="D8" s="1">
         <v>0.000156672</v>
@@ -514,13 +514,13 @@
         <v>1024</v>
       </c>
       <c r="B9" s="1">
-        <v>0.003099712</v>
+        <v>0.003185664</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0009648</v>
+        <v>0.0009644800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.001145856</v>
+        <v>0.001147552</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -528,13 +528,13 @@
         <v>2048</v>
       </c>
       <c r="B10" s="1">
-        <v>0.019093504</v>
+        <v>0.018148512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.008569952</v>
+        <v>0.008635392</v>
       </c>
       <c r="D10" s="1">
-        <v>0.009152512</v>
+        <v>0.009615200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -542,13 +542,13 @@
         <v>4096</v>
       </c>
       <c r="B11" s="1">
-        <v>0.145698816</v>
+        <v>0.146786336</v>
       </c>
       <c r="C11" s="1">
-        <v>0.100809536</v>
+        <v>0.103874176</v>
       </c>
       <c r="D11" s="1">
-        <v>0.09084787200000001</v>
+        <v>0.09241088</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -556,13 +556,13 @@
         <v>8192</v>
       </c>
       <c r="B12" s="1">
-        <v>1.016837056</v>
+        <v>1.024891776</v>
       </c>
       <c r="C12" s="1">
-        <v>1.197450272</v>
+        <v>1.257324352</v>
       </c>
       <c r="D12" s="1">
-        <v>0.7930334400000001</v>
+        <v>0.770899648</v>
       </c>
     </row>
   </sheetData>
@@ -603,10 +603,10 @@
         <v>5.024000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>4.768E-06</v>
+        <v>4.352E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -614,10 +614,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>4.832E-06</v>
+        <v>4.192E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="D3" s="1">
         <v>4.096E-06</v>
@@ -628,10 +628,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>5.12E-06</v>
+        <v>4.096E-06</v>
       </c>
       <c r="C4" s="1">
-        <v>4.832E-06</v>
+        <v>4.96E-06</v>
       </c>
       <c r="D4" s="1">
         <v>5.12E-06</v>
@@ -642,13 +642,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>6.08E-06</v>
       </c>
       <c r="C5" s="1">
         <v>4.096E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>5.12E-06</v>
+        <v>5.952000000000001E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -656,10 +656,10 @@
         <v>128</v>
       </c>
       <c r="B6" s="1">
-        <v>1.024E-05</v>
+        <v>1.0176E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="D6" s="1">
         <v>9.216000000000001E-06</v>
@@ -670,10 +670,10 @@
         <v>256</v>
       </c>
       <c r="B7" s="1">
-        <v>4.102400000000001E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1504E-05</v>
+        <v>2.224E-05</v>
       </c>
       <c r="D7" s="1">
         <v>2.6624E-05</v>
@@ -684,10 +684,10 @@
         <v>512</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000287744</v>
+        <v>0.000287488</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000127072</v>
+        <v>0.000126976</v>
       </c>
       <c r="D8" s="1">
         <v>0.000156672</v>
@@ -698,13 +698,13 @@
         <v>1024</v>
       </c>
       <c r="B9" s="1">
-        <v>0.003099712</v>
+        <v>0.003185664</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0009648</v>
+        <v>0.0009644800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.001145856</v>
+        <v>0.001147552</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -712,13 +712,13 @@
         <v>2048</v>
       </c>
       <c r="B10" s="1">
-        <v>0.019093504</v>
+        <v>0.018148512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.008569952</v>
+        <v>0.008635392</v>
       </c>
       <c r="D10" s="1">
-        <v>0.009152512</v>
+        <v>0.009615200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -726,13 +726,13 @@
         <v>4096</v>
       </c>
       <c r="B11" s="1">
-        <v>0.145698816</v>
+        <v>0.146786336</v>
       </c>
       <c r="C11" s="1">
-        <v>0.100809536</v>
+        <v>0.103874176</v>
       </c>
       <c r="D11" s="1">
-        <v>0.09084787200000001</v>
+        <v>0.09241088</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -740,13 +740,13 @@
         <v>8192</v>
       </c>
       <c r="B12" s="1">
-        <v>1.016837056</v>
+        <v>1.024891776</v>
       </c>
       <c r="C12" s="1">
-        <v>1.197450272</v>
+        <v>1.257324352</v>
       </c>
       <c r="D12" s="1">
-        <v>0.7930334400000001</v>
+        <v>0.770899648</v>
       </c>
     </row>
   </sheetData>
